--- a/Kominternovskiy.xlsx
+++ b/Kominternovskiy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Конституция\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B6F04-34AD-47C1-8C9A-E418F57E56EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8760" windowHeight="3195"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
   <si>
     <t>Уик</t>
   </si>
@@ -435,13 +436,154 @@
   </si>
   <si>
     <t>УИК №4027</t>
+  </si>
+  <si>
+    <t>Урицкого</t>
+  </si>
+  <si>
+    <t>75а</t>
+  </si>
+  <si>
+    <t>бульвар Победы</t>
+  </si>
+  <si>
+    <t>9 Января</t>
+  </si>
+  <si>
+    <t>проспект Труда</t>
+  </si>
+  <si>
+    <t>Загородная</t>
+  </si>
+  <si>
+    <t>Машиностроителей</t>
+  </si>
+  <si>
+    <t>13б</t>
+  </si>
+  <si>
+    <t>Газовая</t>
+  </si>
+  <si>
+    <t>220а</t>
+  </si>
+  <si>
+    <t>9 января</t>
+  </si>
+  <si>
+    <t>Антонова-Овсеенко</t>
+  </si>
+  <si>
+    <t>45 стрелковой дивизии</t>
+  </si>
+  <si>
+    <t>226б</t>
+  </si>
+  <si>
+    <t>Беговая</t>
+  </si>
+  <si>
+    <t>Хользунова</t>
+  </si>
+  <si>
+    <t>303 стрелковой дивизии</t>
+  </si>
+  <si>
+    <t>2а</t>
+  </si>
+  <si>
+    <t>Электросигнальная</t>
+  </si>
+  <si>
+    <t>переулок Политехнический</t>
+  </si>
+  <si>
+    <t>Московский проспект</t>
+  </si>
+  <si>
+    <t>Лидии Рябцевой</t>
+  </si>
+  <si>
+    <t>Транспортная</t>
+  </si>
+  <si>
+    <t>переулок Здоровья</t>
+  </si>
+  <si>
+    <t>переулок Ученический</t>
+  </si>
+  <si>
+    <t>38а</t>
+  </si>
+  <si>
+    <t>40а</t>
+  </si>
+  <si>
+    <t>Маршала Жукова</t>
+  </si>
+  <si>
+    <t>Генерала Лизюкова</t>
+  </si>
+  <si>
+    <t>60-летия ВЛКСМ</t>
+  </si>
+  <si>
+    <t>Владимира Невского</t>
+  </si>
+  <si>
+    <t>17а</t>
+  </si>
+  <si>
+    <t>52а</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>65б</t>
+  </si>
+  <si>
+    <t>Дмитрия Горина</t>
+  </si>
+  <si>
+    <t>2д</t>
+  </si>
+  <si>
+    <t>площадь Советов</t>
+  </si>
+  <si>
+    <t>28а</t>
+  </si>
+  <si>
+    <t>переулок Ботанический</t>
+  </si>
+  <si>
+    <t>Шишкова</t>
+  </si>
+  <si>
+    <t>259/4</t>
+  </si>
+  <si>
+    <t>Независимости</t>
+  </si>
+  <si>
+    <t>55/6</t>
+  </si>
+  <si>
+    <t>Новгородская</t>
+  </si>
+  <si>
+    <t>Варейкиса</t>
+  </si>
+  <si>
+    <t>нет в списках УИКов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +621,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF656D78"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -600,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -641,35 +790,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -895,17 +1022,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,20 +1071,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:K127" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:K127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:K127" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:K127" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Уик" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="В списках" dataDxfId="8"/>
-    <tableColumn id="3" name="Выданные бюллетени (явка)" dataDxfId="7"/>
-    <tableColumn id="4" name="Бюллетени в ящиках" dataDxfId="6"/>
-    <tableColumn id="5" name="Недействительные бюллетени" dataDxfId="5"/>
-    <tableColumn id="6" name="За (число)" dataDxfId="4"/>
-    <tableColumn id="7" name="За (%)" dataDxfId="3"/>
-    <tableColumn id="8" name="Против (число)" dataDxfId="2"/>
-    <tableColumn id="9" name="Против (%)" dataDxfId="1"/>
-    <tableColumn id="10" name="Улица"/>
-    <tableColumn id="11" name="Дом"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Уик" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="В списках" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Выданные бюллетени (явка)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Бюллетени в ящиках" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Недействительные бюллетени" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="За (число)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="За (%)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Против (число)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Против (%)" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Улица"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Дом"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1202,13 +1352,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,6 +1438,12 @@
       <c r="I2" s="10">
         <v>0.36530000000000001</v>
       </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1317,6 +1473,12 @@
       <c r="I3" s="11">
         <v>0.3135</v>
       </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1346,6 +1508,12 @@
       <c r="I4" s="11">
         <v>0.17280000000000001</v>
       </c>
+      <c r="J4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1375,6 +1543,12 @@
       <c r="I5" s="11">
         <v>0.17599999999999999</v>
       </c>
+      <c r="J5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1404,6 +1578,12 @@
       <c r="I6" s="11">
         <v>0.2021</v>
       </c>
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1433,6 +1613,12 @@
       <c r="I7" s="11">
         <v>0.16239999999999999</v>
       </c>
+      <c r="J7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1462,6 +1648,12 @@
       <c r="I8" s="11">
         <v>0.17929999999999999</v>
       </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1491,6 +1683,12 @@
       <c r="I9" s="11">
         <v>0.29480000000000001</v>
       </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1520,6 +1718,12 @@
       <c r="I10" s="11">
         <v>0.47420000000000001</v>
       </c>
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1549,6 +1753,12 @@
       <c r="I11" s="11">
         <v>0.1787</v>
       </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1578,6 +1788,12 @@
       <c r="I12" s="11">
         <v>0.27629999999999999</v>
       </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1607,6 +1823,12 @@
       <c r="I13" s="11">
         <v>0.30459999999999998</v>
       </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1636,6 +1858,12 @@
       <c r="I14" s="11">
         <v>0.1799</v>
       </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <v>268</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1665,6 +1893,12 @@
       <c r="I15" s="11">
         <v>0.12540000000000001</v>
       </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15">
+        <v>268</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1694,8 +1928,14 @@
       <c r="I16" s="11">
         <v>0.1525</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -1723,8 +1963,14 @@
       <c r="I17" s="11">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1752,8 +1998,14 @@
       <c r="I18" s="11">
         <v>0.31109999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1781,8 +2033,14 @@
       <c r="I19" s="11">
         <v>0.1867</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1810,8 +2068,14 @@
       <c r="I20" s="11">
         <v>0.24160000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1839,8 +2103,14 @@
       <c r="I21" s="11">
         <v>0.1968</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="16">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1868,8 +2138,14 @@
       <c r="I22" s="11">
         <v>0.16089999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="16">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1897,8 +2173,14 @@
       <c r="I23" s="12">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -1926,8 +2208,14 @@
       <c r="I24" s="11">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1955,8 +2243,14 @@
       <c r="I25" s="11">
         <v>0.25750000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1984,8 +2278,14 @@
       <c r="I26" s="11">
         <v>0.23980000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -2013,8 +2313,14 @@
       <c r="I27" s="11">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2348,14 @@
       <c r="I28" s="11">
         <v>0.2455</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
@@ -2071,8 +2383,14 @@
       <c r="I29" s="11">
         <v>0.31180000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -2100,8 +2418,14 @@
       <c r="I30" s="11">
         <v>0.12470000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -2129,8 +2453,14 @@
       <c r="I31" s="11">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>41</v>
       </c>
@@ -2158,8 +2488,14 @@
       <c r="I32" s="11">
         <v>0.2833</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2187,8 +2523,14 @@
       <c r="I33" s="11">
         <v>0.2447</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>43</v>
       </c>
@@ -2216,8 +2558,14 @@
       <c r="I34" s="11">
         <v>0.379</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -2245,8 +2593,14 @@
       <c r="I35" s="11">
         <v>0.27429999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -2274,8 +2628,14 @@
       <c r="I36" s="11">
         <v>0.29360000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -2303,8 +2663,14 @@
       <c r="I37" s="11">
         <v>0.26579999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
@@ -2332,8 +2698,14 @@
       <c r="I38" s="11">
         <v>0.27329999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -2361,8 +2733,14 @@
       <c r="I39" s="11">
         <v>0.2792</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -2390,8 +2768,14 @@
       <c r="I40" s="11">
         <v>0.1176</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>159</v>
+      </c>
+      <c r="K40">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>50</v>
       </c>
@@ -2419,8 +2803,14 @@
       <c r="I41" s="11">
         <v>0.34389999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -2448,8 +2838,14 @@
       <c r="I42" s="11">
         <v>0.31259999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -2477,8 +2873,14 @@
       <c r="I43" s="11">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
@@ -2506,8 +2908,14 @@
       <c r="I44" s="11">
         <v>0.27779999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
@@ -2535,8 +2943,14 @@
       <c r="I45" s="11">
         <v>0.20380000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
@@ -2564,8 +2978,14 @@
       <c r="I46" s="11">
         <v>0.2167</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
@@ -2593,8 +3013,14 @@
       <c r="I47" s="11">
         <v>0.18310000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>160</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>57</v>
       </c>
@@ -2622,8 +3048,14 @@
       <c r="I48" s="11">
         <v>0.2782</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -2651,8 +3083,14 @@
       <c r="I49" s="11">
         <v>0.28420000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>151</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -2680,8 +3118,14 @@
       <c r="I50" s="11">
         <v>0.18329999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
@@ -2709,8 +3153,14 @@
       <c r="I51" s="11">
         <v>0.33069999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>61</v>
       </c>
@@ -2738,8 +3188,14 @@
       <c r="I52" s="11">
         <v>0.16059999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
@@ -2767,8 +3223,14 @@
       <c r="I53" s="11">
         <v>0.1613</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>152</v>
+      </c>
+      <c r="K53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>63</v>
       </c>
@@ -2796,8 +3258,14 @@
       <c r="I54" s="11">
         <v>0.378</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -2825,8 +3293,14 @@
       <c r="I55" s="11">
         <v>0.22539999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>65</v>
       </c>
@@ -2854,8 +3328,14 @@
       <c r="I56" s="11">
         <v>0.42330000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>152</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>66</v>
       </c>
@@ -2883,8 +3363,14 @@
       <c r="I57" s="11">
         <v>0.1981</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>164</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>67</v>
       </c>
@@ -2912,8 +3398,14 @@
       <c r="I58" s="11">
         <v>0.24049999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>164</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -2941,8 +3433,14 @@
       <c r="I59" s="11">
         <v>0.32479999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>69</v>
       </c>
@@ -2970,8 +3468,14 @@
       <c r="I60" s="11">
         <v>0.14169999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>164</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>70</v>
       </c>
@@ -2999,8 +3503,14 @@
       <c r="I61" s="11">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>152</v>
+      </c>
+      <c r="K61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3538,14 @@
       <c r="I62" s="11">
         <v>0.318</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>152</v>
+      </c>
+      <c r="K62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>72</v>
       </c>
@@ -3057,8 +3573,14 @@
       <c r="I63" s="11">
         <v>0.32279999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>73</v>
       </c>
@@ -3086,8 +3608,14 @@
       <c r="I64" s="11">
         <v>0.39710000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>166</v>
+      </c>
+      <c r="K64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>74</v>
       </c>
@@ -3115,8 +3643,14 @@
       <c r="I65" s="11">
         <v>0.31659999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>152</v>
+      </c>
+      <c r="K65">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>75</v>
       </c>
@@ -3144,8 +3678,14 @@
       <c r="I66" s="11">
         <v>0.24579999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>152</v>
+      </c>
+      <c r="K66">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
@@ -3173,8 +3713,14 @@
       <c r="I67" s="11">
         <v>0.26229999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>152</v>
+      </c>
+      <c r="K67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>77</v>
       </c>
@@ -3202,8 +3748,14 @@
       <c r="I68" s="11">
         <v>0.12859999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
+      <c r="K68">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
@@ -3231,8 +3783,14 @@
       <c r="I69" s="11">
         <v>0.1691</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>165</v>
+      </c>
+      <c r="K69">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -3260,8 +3818,14 @@
       <c r="I70" s="11">
         <v>0.26140000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>165</v>
+      </c>
+      <c r="K70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>80</v>
       </c>
@@ -3289,8 +3853,14 @@
       <c r="I71" s="11">
         <v>0.14940000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>165</v>
+      </c>
+      <c r="K71">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>81</v>
       </c>
@@ -3318,8 +3888,14 @@
       <c r="I72" s="11">
         <v>0.31269999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>165</v>
+      </c>
+      <c r="K72">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>82</v>
       </c>
@@ -3347,8 +3923,14 @@
       <c r="I73" s="11">
         <v>0.2591</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>167</v>
+      </c>
+      <c r="K73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -3376,8 +3958,14 @@
       <c r="I74" s="11">
         <v>0.50349999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -3405,8 +3993,14 @@
       <c r="I75" s="11">
         <v>0.27679999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>165</v>
+      </c>
+      <c r="K75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -3434,8 +4028,14 @@
       <c r="I76" s="11">
         <v>0.33169999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>165</v>
+      </c>
+      <c r="K76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>86</v>
       </c>
@@ -3463,8 +4063,14 @@
       <c r="I77" s="11">
         <v>0.26240000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>165</v>
+      </c>
+      <c r="K77">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>87</v>
       </c>
@@ -3492,8 +4098,14 @@
       <c r="I78" s="11">
         <v>0.38350000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>165</v>
+      </c>
+      <c r="K78">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -3521,8 +4133,14 @@
       <c r="I79" s="11">
         <v>0.24729999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>165</v>
+      </c>
+      <c r="K79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>89</v>
       </c>
@@ -3550,8 +4168,14 @@
       <c r="I80" s="11">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>165</v>
+      </c>
+      <c r="K80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>90</v>
       </c>
@@ -3579,8 +4203,14 @@
       <c r="I81" s="11">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>165</v>
+      </c>
+      <c r="K81">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>91</v>
       </c>
@@ -3608,8 +4238,14 @@
       <c r="I82" s="11">
         <v>0.23089999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>165</v>
+      </c>
+      <c r="K82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
@@ -3637,8 +4273,14 @@
       <c r="I83" s="11">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>164</v>
+      </c>
+      <c r="K83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>93</v>
       </c>
@@ -3666,8 +4308,14 @@
       <c r="I84" s="11">
         <v>0.28079999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>164</v>
+      </c>
+      <c r="K84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>94</v>
       </c>
@@ -3695,8 +4343,14 @@
       <c r="I85" s="11">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>164</v>
+      </c>
+      <c r="K85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>95</v>
       </c>
@@ -3724,8 +4378,14 @@
       <c r="I86" s="11">
         <v>0.2162</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>157</v>
+      </c>
+      <c r="K86">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>96</v>
       </c>
@@ -3753,8 +4413,14 @@
       <c r="I87" s="11">
         <v>0.24440000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>157</v>
+      </c>
+      <c r="K87">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>97</v>
       </c>
@@ -3782,8 +4448,14 @@
       <c r="I88" s="11">
         <v>0.21290000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>98</v>
       </c>
@@ -3811,8 +4483,14 @@
       <c r="I89" s="11">
         <v>0.17119999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>99</v>
       </c>
@@ -3840,8 +4518,14 @@
       <c r="I90" s="11">
         <v>0.30070000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>167</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>100</v>
       </c>
@@ -3869,8 +4553,14 @@
       <c r="I91" s="11">
         <v>0.3175</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>167</v>
+      </c>
+      <c r="K91">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>101</v>
       </c>
@@ -3898,8 +4588,14 @@
       <c r="I92" s="11">
         <v>0.3805</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>167</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>102</v>
       </c>
@@ -3927,8 +4623,14 @@
       <c r="I93" s="11">
         <v>0.27339999999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J93" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K93">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>103</v>
       </c>
@@ -3956,8 +4658,14 @@
       <c r="I94" s="11">
         <v>0.34389999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>167</v>
+      </c>
+      <c r="K94">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
@@ -3985,8 +4693,14 @@
       <c r="I95" s="11">
         <v>0.35880000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>167</v>
+      </c>
+      <c r="K95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>105</v>
       </c>
@@ -4014,8 +4728,14 @@
       <c r="I96" s="11">
         <v>0.40610000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>157</v>
+      </c>
+      <c r="K96">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>106</v>
       </c>
@@ -4043,8 +4763,14 @@
       <c r="I97" s="11">
         <v>0.20530000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>172</v>
+      </c>
+      <c r="K97">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>107</v>
       </c>
@@ -4072,8 +4798,14 @@
       <c r="I98" s="11">
         <v>0.14380000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>172</v>
+      </c>
+      <c r="K98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
@@ -4101,8 +4833,14 @@
       <c r="I99" s="11">
         <v>0.2427</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>174</v>
+      </c>
+      <c r="K99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>109</v>
       </c>
@@ -4130,8 +4868,14 @@
       <c r="I100" s="11">
         <v>0.19159999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>157</v>
+      </c>
+      <c r="K100">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>110</v>
       </c>
@@ -4159,8 +4903,14 @@
       <c r="I101" s="11">
         <v>0.18490000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>166</v>
+      </c>
+      <c r="K101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>111</v>
       </c>
@@ -4188,8 +4938,14 @@
       <c r="I102" s="11">
         <v>0.31990000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>157</v>
+      </c>
+      <c r="K102">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>112</v>
       </c>
@@ -4217,8 +4973,14 @@
       <c r="I103" s="11">
         <v>0.2883</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+      <c r="K103">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>113</v>
       </c>
@@ -4246,8 +5008,14 @@
       <c r="I104" s="11">
         <v>0.31690000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>140</v>
+      </c>
+      <c r="K104">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>114</v>
       </c>
@@ -4275,8 +5043,14 @@
       <c r="I105" s="11">
         <v>0.30840000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+      <c r="K105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>115</v>
       </c>
@@ -4304,8 +5078,14 @@
       <c r="I106" s="11">
         <v>0.20050000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>176</v>
+      </c>
+      <c r="K106">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>116</v>
       </c>
@@ -4333,8 +5113,14 @@
       <c r="I107" s="11">
         <v>0.34570000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+      <c r="K107">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>117</v>
       </c>
@@ -4362,8 +5148,14 @@
       <c r="I108" s="11">
         <v>0.19650000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>118</v>
       </c>
@@ -4391,8 +5183,14 @@
       <c r="I109" s="11">
         <v>0.31459999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J109" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>119</v>
       </c>
@@ -4420,8 +5218,14 @@
       <c r="I110" s="11">
         <v>0.39140000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>167</v>
+      </c>
+      <c r="K110">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>120</v>
       </c>
@@ -4449,8 +5253,14 @@
       <c r="I111" s="11">
         <v>0.19650000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>167</v>
+      </c>
+      <c r="K111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>121</v>
       </c>
@@ -4478,8 +5288,14 @@
       <c r="I112" s="11">
         <v>0.41339999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>177</v>
+      </c>
+      <c r="K112">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>122</v>
       </c>
@@ -4507,8 +5323,14 @@
       <c r="I113" s="11">
         <v>0.45500000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+      <c r="K113">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>123</v>
       </c>
@@ -4536,8 +5358,14 @@
       <c r="I114" s="11">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+      <c r="K114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>124</v>
       </c>
@@ -4565,8 +5393,14 @@
       <c r="I115" s="11">
         <v>0.37659999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J115" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K115">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>125</v>
       </c>
@@ -4594,8 +5428,14 @@
       <c r="I116" s="11">
         <v>0.39350000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J116" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K116">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>126</v>
       </c>
@@ -4623,8 +5463,14 @@
       <c r="I117" s="11">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J117" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K117">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>127</v>
       </c>
@@ -4652,8 +5498,14 @@
       <c r="I118" s="11">
         <v>0.27339999999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+      <c r="K118">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>128</v>
       </c>
@@ -4681,8 +5533,14 @@
       <c r="I119" s="11">
         <v>0.21659999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>179</v>
+      </c>
+      <c r="K119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
@@ -4710,8 +5568,14 @@
       <c r="I120" s="11">
         <v>0.50309999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>140</v>
+      </c>
+      <c r="K120">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>130</v>
       </c>
@@ -4739,8 +5603,14 @@
       <c r="I121" s="11">
         <v>0.41849999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+      <c r="K121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>131</v>
       </c>
@@ -4768,8 +5638,14 @@
       <c r="I122" s="11">
         <v>0.18279999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>181</v>
+      </c>
+      <c r="K122">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>132</v>
       </c>
@@ -4797,8 +5673,14 @@
       <c r="I123" s="11">
         <v>0.1653</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>182</v>
+      </c>
+      <c r="K123">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>133</v>
       </c>
@@ -4826,8 +5708,14 @@
       <c r="I124" s="11">
         <v>0.24060000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>177</v>
+      </c>
+      <c r="K124">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>134</v>
       </c>
@@ -4855,8 +5743,14 @@
       <c r="I125" s="11">
         <v>0.3821</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J125" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K125">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>135</v>
       </c>
@@ -4884,8 +5778,14 @@
       <c r="I126" s="11">
         <v>0.39979999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+      <c r="K126">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>136</v>
       </c>
@@ -4913,135 +5813,138 @@
       <c r="I127" s="11">
         <v>0.2787</v>
       </c>
+      <c r="J127" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512816&amp;type=232"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512817&amp;type=232"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512818&amp;type=232"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512819&amp;type=232"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512820&amp;type=232"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512821&amp;type=232"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512822&amp;type=232"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512823&amp;type=232"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512824&amp;type=232"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512825&amp;type=232"/>
-    <hyperlink ref="A12" r:id="rId11" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512826&amp;type=232"/>
-    <hyperlink ref="A13" r:id="rId12" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512827&amp;type=232"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512828&amp;type=232"/>
-    <hyperlink ref="A15" r:id="rId14" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512829&amp;type=232"/>
-    <hyperlink ref="A16" r:id="rId15" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512830&amp;type=232"/>
-    <hyperlink ref="A17" r:id="rId16" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512831&amp;type=232"/>
-    <hyperlink ref="A18" r:id="rId17" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512832&amp;type=232"/>
-    <hyperlink ref="A19" r:id="rId18" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512833&amp;type=232"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512834&amp;type=232"/>
-    <hyperlink ref="A21" r:id="rId20" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512835&amp;type=232"/>
-    <hyperlink ref="A22" r:id="rId21" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512836&amp;type=232"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512837&amp;type=232"/>
-    <hyperlink ref="A24" r:id="rId23" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512838&amp;type=232"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512839&amp;type=232"/>
-    <hyperlink ref="A26" r:id="rId25" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512840&amp;type=232"/>
-    <hyperlink ref="A27" r:id="rId26" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512841&amp;type=232"/>
-    <hyperlink ref="A28" r:id="rId27" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512842&amp;type=232"/>
-    <hyperlink ref="A29" r:id="rId28" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512843&amp;type=232"/>
-    <hyperlink ref="A30" r:id="rId29" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512844&amp;type=232"/>
-    <hyperlink ref="A31" r:id="rId30" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512845&amp;type=232"/>
-    <hyperlink ref="A32" r:id="rId31" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512846&amp;type=232"/>
-    <hyperlink ref="A33" r:id="rId32" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512847&amp;type=232"/>
-    <hyperlink ref="A34" r:id="rId33" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512848&amp;type=232"/>
-    <hyperlink ref="A35" r:id="rId34" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512849&amp;type=232"/>
-    <hyperlink ref="A36" r:id="rId35" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512850&amp;type=232"/>
-    <hyperlink ref="A37" r:id="rId36" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512851&amp;type=232"/>
-    <hyperlink ref="A38" r:id="rId37" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512852&amp;type=232"/>
-    <hyperlink ref="A39" r:id="rId38" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512853&amp;type=232"/>
-    <hyperlink ref="A40" r:id="rId39" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512854&amp;type=232"/>
-    <hyperlink ref="A41" r:id="rId40" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512855&amp;type=232"/>
-    <hyperlink ref="A42" r:id="rId41" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512856&amp;type=232"/>
-    <hyperlink ref="A43" r:id="rId42" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512857&amp;type=232"/>
-    <hyperlink ref="A44" r:id="rId43" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512858&amp;type=232"/>
-    <hyperlink ref="A45" r:id="rId44" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512859&amp;type=232"/>
-    <hyperlink ref="A46" r:id="rId45" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512860&amp;type=232"/>
-    <hyperlink ref="A47" r:id="rId46" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512861&amp;type=232"/>
-    <hyperlink ref="A48" r:id="rId47" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512862&amp;type=232"/>
-    <hyperlink ref="A49" r:id="rId48" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512863&amp;type=232"/>
-    <hyperlink ref="A50" r:id="rId49" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512864&amp;type=232"/>
-    <hyperlink ref="A51" r:id="rId50" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512865&amp;type=232"/>
-    <hyperlink ref="A52" r:id="rId51" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512866&amp;type=232"/>
-    <hyperlink ref="A53" r:id="rId52" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512867&amp;type=232"/>
-    <hyperlink ref="A54" r:id="rId53" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512868&amp;type=232"/>
-    <hyperlink ref="A55" r:id="rId54" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512869&amp;type=232"/>
-    <hyperlink ref="A56" r:id="rId55" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512870&amp;type=232"/>
-    <hyperlink ref="A57" r:id="rId56" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512871&amp;type=232"/>
-    <hyperlink ref="A58" r:id="rId57" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512872&amp;type=232"/>
-    <hyperlink ref="A59" r:id="rId58" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512873&amp;type=232"/>
-    <hyperlink ref="A60" r:id="rId59" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512874&amp;type=232"/>
-    <hyperlink ref="A61" r:id="rId60" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512875&amp;type=232"/>
-    <hyperlink ref="A62" r:id="rId61" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512876&amp;type=232"/>
-    <hyperlink ref="A63" r:id="rId62" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512877&amp;type=232"/>
-    <hyperlink ref="A64" r:id="rId63" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512878&amp;type=232"/>
-    <hyperlink ref="A65" r:id="rId64" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512879&amp;type=232"/>
-    <hyperlink ref="A66" r:id="rId65" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512880&amp;type=232"/>
-    <hyperlink ref="A67" r:id="rId66" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512881&amp;type=232"/>
-    <hyperlink ref="A68" r:id="rId67" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512884&amp;type=232"/>
-    <hyperlink ref="A69" r:id="rId68" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512885&amp;type=232"/>
-    <hyperlink ref="A70" r:id="rId69" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512886&amp;type=232"/>
-    <hyperlink ref="A71" r:id="rId70" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512887&amp;type=232"/>
-    <hyperlink ref="A72" r:id="rId71" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512888&amp;type=232"/>
-    <hyperlink ref="A73" r:id="rId72" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512889&amp;type=232"/>
-    <hyperlink ref="A74" r:id="rId73" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512890&amp;type=232"/>
-    <hyperlink ref="A75" r:id="rId74" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512891&amp;type=232"/>
-    <hyperlink ref="A76" r:id="rId75" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512892&amp;type=232"/>
-    <hyperlink ref="A77" r:id="rId76" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512893&amp;type=232"/>
-    <hyperlink ref="A78" r:id="rId77" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512894&amp;type=232"/>
-    <hyperlink ref="A79" r:id="rId78" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512895&amp;type=232"/>
-    <hyperlink ref="A80" r:id="rId79" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512896&amp;type=232"/>
-    <hyperlink ref="A81" r:id="rId80" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512897&amp;type=232"/>
-    <hyperlink ref="A82" r:id="rId81" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512898&amp;type=232"/>
-    <hyperlink ref="A83" r:id="rId82" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512899&amp;type=232"/>
-    <hyperlink ref="A84" r:id="rId83" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512900&amp;type=232"/>
-    <hyperlink ref="A85" r:id="rId84" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512901&amp;type=232"/>
-    <hyperlink ref="A86" r:id="rId85" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512902&amp;type=232"/>
-    <hyperlink ref="A87" r:id="rId86" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512903&amp;type=232"/>
-    <hyperlink ref="A88" r:id="rId87" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512904&amp;type=232"/>
-    <hyperlink ref="A89" r:id="rId88" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512905&amp;type=232"/>
-    <hyperlink ref="A90" r:id="rId89" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512906&amp;type=232"/>
-    <hyperlink ref="A91" r:id="rId90" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512907&amp;type=232"/>
-    <hyperlink ref="A92" r:id="rId91" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512908&amp;type=232"/>
-    <hyperlink ref="A93" r:id="rId92" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512909&amp;type=232"/>
-    <hyperlink ref="A94" r:id="rId93" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512910&amp;type=232"/>
-    <hyperlink ref="A95" r:id="rId94" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512911&amp;type=232"/>
-    <hyperlink ref="A96" r:id="rId95" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512912&amp;type=232"/>
-    <hyperlink ref="A97" r:id="rId96" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512913&amp;type=232"/>
-    <hyperlink ref="A98" r:id="rId97" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512914&amp;type=232"/>
-    <hyperlink ref="A99" r:id="rId98" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512915&amp;type=232"/>
-    <hyperlink ref="A100" r:id="rId99" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512916&amp;type=232"/>
-    <hyperlink ref="A101" r:id="rId100" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512917&amp;type=232"/>
-    <hyperlink ref="A102" r:id="rId101" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512918&amp;type=232"/>
-    <hyperlink ref="A103" r:id="rId102" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512919&amp;type=232"/>
-    <hyperlink ref="A104" r:id="rId103" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512920&amp;type=232"/>
-    <hyperlink ref="A105" r:id="rId104" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512921&amp;type=232"/>
-    <hyperlink ref="A106" r:id="rId105" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512922&amp;type=232"/>
-    <hyperlink ref="A107" r:id="rId106" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512923&amp;type=232"/>
-    <hyperlink ref="A108" r:id="rId107" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512924&amp;type=232"/>
-    <hyperlink ref="A109" r:id="rId108" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512925&amp;type=232"/>
-    <hyperlink ref="A110" r:id="rId109" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512926&amp;type=232"/>
-    <hyperlink ref="A111" r:id="rId110" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512927&amp;type=232"/>
-    <hyperlink ref="A112" r:id="rId111" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512928&amp;type=232"/>
-    <hyperlink ref="A113" r:id="rId112" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512929&amp;type=232"/>
-    <hyperlink ref="A114" r:id="rId113" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512930&amp;type=232"/>
-    <hyperlink ref="A115" r:id="rId114" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512931&amp;type=232"/>
-    <hyperlink ref="A116" r:id="rId115" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512932&amp;type=232"/>
-    <hyperlink ref="A117" r:id="rId116" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512933&amp;type=232"/>
-    <hyperlink ref="A118" r:id="rId117" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512934&amp;type=232"/>
-    <hyperlink ref="A119" r:id="rId118" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512935&amp;type=232"/>
-    <hyperlink ref="A120" r:id="rId119" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512936&amp;type=232"/>
-    <hyperlink ref="A121" r:id="rId120" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512937&amp;type=232"/>
-    <hyperlink ref="A122" r:id="rId121" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512938&amp;type=232"/>
-    <hyperlink ref="A123" r:id="rId122" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512939&amp;type=232"/>
-    <hyperlink ref="A124" r:id="rId123" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512940&amp;type=232"/>
-    <hyperlink ref="A125" r:id="rId124" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512941&amp;type=232"/>
-    <hyperlink ref="A126" r:id="rId125" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512942&amp;type=232"/>
-    <hyperlink ref="A127" r:id="rId126" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010516387&amp;type=232"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512816&amp;type=232" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512817&amp;type=232" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512818&amp;type=232" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512819&amp;type=232" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512820&amp;type=232" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512821&amp;type=232" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512822&amp;type=232" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512823&amp;type=232" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512824&amp;type=232" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512825&amp;type=232" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512826&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512827&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512828&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512829&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512830&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512831&amp;type=232" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512832&amp;type=232" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512833&amp;type=232" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512834&amp;type=232" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512835&amp;type=232" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512836&amp;type=232" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512837&amp;type=232" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512838&amp;type=232" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512839&amp;type=232" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512840&amp;type=232" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512841&amp;type=232" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512842&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512843&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512844&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512845&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512846&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512847&amp;type=232" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512848&amp;type=232" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512849&amp;type=232" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512850&amp;type=232" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512851&amp;type=232" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512852&amp;type=232" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512853&amp;type=232" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512854&amp;type=232" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512855&amp;type=232" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512856&amp;type=232" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512857&amp;type=232" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512858&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512859&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512860&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512861&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512862&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512863&amp;type=232" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512864&amp;type=232" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512865&amp;type=232" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512866&amp;type=232" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512867&amp;type=232" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512868&amp;type=232" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512869&amp;type=232" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512870&amp;type=232" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512871&amp;type=232" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512872&amp;type=232" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512873&amp;type=232" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512874&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512875&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512876&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512877&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512878&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512879&amp;type=232" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512880&amp;type=232" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512881&amp;type=232" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512884&amp;type=232" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512885&amp;type=232" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512886&amp;type=232" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512887&amp;type=232" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512888&amp;type=232" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512889&amp;type=232" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512890&amp;type=232" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512891&amp;type=232" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512892&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512893&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512894&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512895&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512896&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512897&amp;type=232" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512898&amp;type=232" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512899&amp;type=232" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512900&amp;type=232" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512901&amp;type=232" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512902&amp;type=232" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512903&amp;type=232" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512904&amp;type=232" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512905&amp;type=232" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512906&amp;type=232" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512907&amp;type=232" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512908&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512909&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512910&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512911&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512912&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512913&amp;type=232" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512914&amp;type=232" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512915&amp;type=232" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512916&amp;type=232" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512917&amp;type=232" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512918&amp;type=232" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512919&amp;type=232" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512920&amp;type=232" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512921&amp;type=232" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512922&amp;type=232" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512923&amp;type=232" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512924&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512925&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512926&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512927&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512928&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512929&amp;type=232" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512930&amp;type=232" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512931&amp;type=232" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512932&amp;type=232" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A117" r:id="rId116" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512933&amp;type=232" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A118" r:id="rId117" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512934&amp;type=232" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A119" r:id="rId118" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512935&amp;type=232" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A120" r:id="rId119" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512936&amp;type=232" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A121" r:id="rId120" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512937&amp;type=232" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A122" r:id="rId121" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512938&amp;type=232" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A123" r:id="rId122" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512939&amp;type=232" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A124" r:id="rId123" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512940&amp;type=232" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A125" r:id="rId124" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512941&amp;type=232" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A126" r:id="rId125" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010512942&amp;type=232" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A127" r:id="rId126" display="http://www.voronezh.vybory.izbirkom.ru/region/region/voronezh?action=show&amp;tvd=23620001496297&amp;vrn=100100163596966&amp;region=36&amp;global=true&amp;sub_region=36&amp;prver=0&amp;pronetvd=null&amp;vibid=4364010516387&amp;type=232" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId127"/>
